--- a/AfDD_2024_Annex_Table_Tab03.xlsx
+++ b/AfDD_2024_Annex_Table_Tab03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED573FEC-ADFE-49FA-8D38-E97DBCA019F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73AA7E4-4616-4487-AC71-A0165B1C8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3DDFD5E4-2983-4CDA-A50A-FBC4D2A37364}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{605619A6-5B67-47B6-AEC1-A692DD412EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188546DB-5658-459D-8CF0-EF8FE311DCDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38638E06-E743-4312-B6E8-207FB4F8F761}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14941,12 +14941,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DD8E3C17-253D-46BF-9613-09FA75DBF769}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{664534E3-DDB2-4480-8868-899C19D2D327}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9C52E768-51CB-421F-88EC-B96EE96C40BD}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{19000E64-EEA5-4CE2-AE97-DC95CB5902C9}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{F27B7DFE-2386-4DAF-A8F1-400DB8448610}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{8A954F78-E872-4E95-912B-1BBD1F0BB0BF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0E6F6FB1-47AE-4A48-8F13-41CECB2850EA}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{96613CFC-EFF1-4682-9EB1-46E26E5F6671}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8CED5A6D-6912-4A13-B34D-DACF760EDEA5}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{BCD7BA1F-DDA1-491D-85D9-8E58F49A9767}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{97DC7C9C-C3BB-4FDE-81DD-6BF41FCD9098}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{60E3B8B6-F4B4-4F71-B7DC-17D5C8C712E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab03.xlsx
+++ b/AfDD_2024_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4462E991-7ED1-4C72-BB42-1FFCC017C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E92CAB-C0CD-4F6F-9D87-119836506F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3F4AFE80-4CF1-4158-97A7-CAF208AE2EF9}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{ADE2BFD2-6890-4A8A-9587-DF91954F47D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C129DD-DDF2-41EB-903A-EA43EA83D40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C656703-D26D-4ABF-9758-E991EA38088E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14938,12 +14938,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{ABE1EC62-0B3A-4AC7-927F-116028BD0AE4}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CA17699A-C2FD-49FE-93F6-E3835D0AAB40}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3D23B51D-9B07-46FB-AA68-0170BDC316F9}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{AF977FBE-BEB3-4395-9405-72561F51C220}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{E6783B9F-B8D0-4525-9C47-45BD13B24A6F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CF2C0717-E0E5-4E1A-BD7B-AC939678A92C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7C217C16-045D-4C68-9526-4EE5AFFA9293}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7B9B197F-9353-40E2-AA01-AD95C55573C1}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5F8A03E7-F273-45C6-9303-F14AA6709EF7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{956875E6-C32A-4267-BA13-1A25A2D5A472}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{424F4984-E9B8-4ED5-AD7C-79392691C5BB}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3083214D-F10E-4B9E-8B82-526E6BF7D385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
